--- a/biology/Zoologie/Idolomantis_diabolica/Idolomantis_diabolica.xlsx
+++ b/biology/Zoologie/Idolomantis_diabolica/Idolomantis_diabolica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mante diabolique
-Idolomantis diabolica, la mante diabolique[1], est une espèce de mante de la famille des Empusidae, et l'unique représentante du genre Idolomantis. C'est l'une des plus grandes espèces de mantes religieuses, et est peut-être la plus grande qui imite les fleurs[2].
+Idolomantis diabolica, la mante diabolique, est une espèce de mante de la famille des Empusidae, et l'unique représentante du genre Idolomantis. C'est l'une des plus grandes espèces de mantes religieuses, et est peut-être la plus grande qui imite les fleurs.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idolomantis diabolica est une grande mante religieuse de la famille des Empusidae. Les femelles mesurent environ 13 cm de long et les mâles environ 10 cm[3]. Elle est originaire d'Éthiopie, du Kenya, du Malawi, de Somalie, de Tanzanie, du Soudan du Sud et d'Ouganda. Son affichage de menace est magnifiquement coloré, avec du rouge, du blanc, du bleu, du violet et du noir[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idolomantis diabolica est une grande mante religieuse de la famille des Empusidae. Les femelles mesurent environ 13 cm de long et les mâles environ 10 cm. Elle est originaire d'Éthiopie, du Kenya, du Malawi, de Somalie, de Tanzanie, du Soudan du Sud et d'Ouganda. Son affichage de menace est magnifiquement coloré, avec du rouge, du blanc, du bleu, du violet et du noir.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idolomantis diabolica est particulièrement prisée sur le marché des mantes en tant que nouvel animal de compagnie. Sa rareté et ses prix élevés amènent à la récolte de ses oothèques dans son milieu naturel sur des sites restreints, ce qui menace ses populations sauvages[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idolomantis diabolica est particulièrement prisée sur le marché des mantes en tant que nouvel animal de compagnie. Sa rareté et ses prix élevés amènent à la récolte de ses oothèques dans son milieu naturel sur des sites restreints, ce qui menace ses populations sauvages
 </t>
         </is>
       </c>
@@ -574,13 +590,84 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce est décrite sous le protonyme Idolum diabolica par l'entomologiste suisse Henri de Saussure dans son « Essai d'un système des Mantides » de 1869. Elle est placée dans le genre Idolomantis, dont il s'agit de la seule espèce, par l'entomologiste russo-britannique Boris Uvarov en 1940[6].
-Publication originale
-Henri de Saussure, « Essai d'un système des Mantides », Bulletin de la Société suisse d'entomologie, vol. 3,‎ 1869, p. 49-73 (lire en ligne)
-Synonymie
-Idolomantis diabolica a pour synonymes[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est décrite sous le protonyme Idolum diabolica par l'entomologiste suisse Henri de Saussure dans son « Essai d'un système des Mantides » de 1869. Elle est placée dans le genre Idolomantis, dont il s'agit de la seule espèce, par l'entomologiste russo-britannique Boris Uvarov en 1940.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Idolomantis_diabolica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idolomantis_diabolica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Henri de Saussure, « Essai d'un système des Mantides », Bulletin de la Société suisse d'entomologie, vol. 3,‎ 1869, p. 49-73 (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Idolomantis_diabolica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idolomantis_diabolica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Idolomantis diabolica a pour synonymes :
 Idolum diabolica Saussure, 1869
 Idolum diabroticum Shelford, 1903</t>
         </is>
